--- a/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_standard_cropped_df.xlsx
+++ b/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_standard_cropped_df.xlsx
@@ -7,28 +7,30 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="038f385a-1d6c-3f73-9" sheetId="1" r:id="rId1"/>
-    <sheet name="e49a50c5-fc40-348e-9" sheetId="2" r:id="rId2"/>
-    <sheet name="15014b4d-61d4-351c-a" sheetId="3" r:id="rId3"/>
-    <sheet name="c83758f9-d318-34d1-b" sheetId="4" r:id="rId4"/>
-    <sheet name="5c9b1d03-58f3-3784-9" sheetId="5" r:id="rId5"/>
-    <sheet name="51c61e95-fc3c-3ee3-b" sheetId="6" r:id="rId6"/>
-    <sheet name="ce85c201-f65d-3a89-b" sheetId="7" r:id="rId7"/>
-    <sheet name="ff944637-e0b0-3db1-8" sheetId="8" r:id="rId8"/>
-    <sheet name="d53d4967-c596-365d-8" sheetId="9" r:id="rId9"/>
-    <sheet name="ec79c015-ce95-34a0-b" sheetId="10" r:id="rId10"/>
-    <sheet name="0d429d65-e9d0-3dcd-8" sheetId="11" r:id="rId11"/>
-    <sheet name="ea17fabf-481c-3054-a" sheetId="12" r:id="rId12"/>
-    <sheet name="8ad934fd-533f-3a9b-a" sheetId="13" r:id="rId13"/>
-    <sheet name="e382c558-d8ea-313c-b" sheetId="14" r:id="rId14"/>
-    <sheet name="71b1f04c-7b10-3687-9" sheetId="15" r:id="rId15"/>
+    <sheet name="8__038f385a-1d6c-3f7" sheetId="1" r:id="rId1"/>
+    <sheet name="9__e49a50c5-fc40-348" sheetId="2" r:id="rId2"/>
+    <sheet name="10__15014b4d-61d4-35" sheetId="3" r:id="rId3"/>
+    <sheet name="7_(a)_c83758f9-d318-" sheetId="4" r:id="rId4"/>
+    <sheet name="7_(a)_5c9b1d03-58f3-" sheetId="5" r:id="rId5"/>
+    <sheet name="12__51c61e95-fc3c-3e" sheetId="6" r:id="rId6"/>
+    <sheet name="13__51c61e95-fc3c-3e" sheetId="7" r:id="rId7"/>
+    <sheet name="13__ce85c201-f65d-3a" sheetId="8" r:id="rId8"/>
+    <sheet name="14__ff944637-e0b0-3d" sheetId="9" r:id="rId9"/>
+    <sheet name="15__d53d4967-c596-36" sheetId="10" r:id="rId10"/>
+    <sheet name="15__ec79c015-ce95-34" sheetId="11" r:id="rId11"/>
+    <sheet name="15__0d429d65-e9d0-3d" sheetId="12" r:id="rId12"/>
+    <sheet name="15__ea17fabf-481c-30" sheetId="13" r:id="rId13"/>
+    <sheet name="16__c83758f9-d318-34" sheetId="14" r:id="rId14"/>
+    <sheet name="2__8ad934fd-533f-3a9" sheetId="15" r:id="rId15"/>
+    <sheet name="3__e382c558-d8ea-313" sheetId="16" r:id="rId16"/>
+    <sheet name="4__71b1f04c-7b10-368" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="145">
   <si>
     <t>line_item_0</t>
   </si>
@@ -222,6 +224,201 @@
     <t>7514</t>
   </si>
   <si>
+    <t>Class C 30% (2021:30%) franking credits available to shareholders</t>
+  </si>
+  <si>
+    <t>ofthe Company for subsequent financial years</t>
+  </si>
+  <si>
+    <t>35875</t>
+  </si>
+  <si>
+    <t>31451</t>
+  </si>
+  <si>
+    <t>$'000</t>
+  </si>
+  <si>
+    <t>Trade payables due to parent entity Suzuki Motor Corporation</t>
+  </si>
+  <si>
+    <t>Other trade payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Total trade and other payables</t>
+  </si>
+  <si>
+    <t>13 Employee benefits</t>
+  </si>
+  <si>
+    <t>18249</t>
+  </si>
+  <si>
+    <t>2419</t>
+  </si>
+  <si>
+    <t>16178</t>
+  </si>
+  <si>
+    <t>36847</t>
+  </si>
+  <si>
+    <t>18122</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>14591</t>
+  </si>
+  <si>
+    <t>34164</t>
+  </si>
+  <si>
+    <t>2021 $000</t>
+  </si>
+  <si>
+    <t>Liability for annual and long- service leave</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Liability for long-service leave</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>Roadside assistance</t>
+  </si>
+  <si>
+    <t>4692</t>
+  </si>
+  <si>
+    <t>3796</t>
+  </si>
+  <si>
+    <t>Retail Bonus adjustment</t>
+  </si>
+  <si>
+    <t>Dealer Holdback</t>
+  </si>
+  <si>
+    <t>Capped price service</t>
+  </si>
+  <si>
+    <t>Payments made during the year</t>
+  </si>
+  <si>
+    <t>Provisions (reversed)/made during the year</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>2731</t>
+  </si>
+  <si>
+    <t>(797)</t>
+  </si>
+  <si>
+    <t>(183)</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>4078</t>
+  </si>
+  <si>
+    <t>(1,053)</t>
+  </si>
+  <si>
+    <t>(294)</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>Dealer incentive, promotionaland. DSM budget</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>Deferred Revenue</t>
+  </si>
+  <si>
+    <t>Total Contract Liabilities</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>7402</t>
+  </si>
+  <si>
+    <t>5684</t>
+  </si>
+  <si>
+    <t>13086</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>5373</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>10486</t>
+  </si>
+  <si>
     <t>Balance at 1 April</t>
   </si>
   <si>
@@ -268,162 +465,6 @@
   </si>
   <si>
     <t>10047</t>
-  </si>
-  <si>
-    <t>$'000</t>
-  </si>
-  <si>
-    <t>Class C 30% (2021:30%) franking credits available to shareholders</t>
-  </si>
-  <si>
-    <t>ofthe Company for subsequent financial years</t>
-  </si>
-  <si>
-    <t>35875</t>
-  </si>
-  <si>
-    <t>31451</t>
-  </si>
-  <si>
-    <t>Liability for annual and long- service leave</t>
-  </si>
-  <si>
-    <t>Non-current</t>
-  </si>
-  <si>
-    <t>Liability for long-service leave</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>2021 $000</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>Roadside assistance</t>
-  </si>
-  <si>
-    <t>4692</t>
-  </si>
-  <si>
-    <t>3796</t>
-  </si>
-  <si>
-    <t>Retail Bonus adjustment</t>
-  </si>
-  <si>
-    <t>Dealer Holdback</t>
-  </si>
-  <si>
-    <t>Capped price service</t>
-  </si>
-  <si>
-    <t>Payments made during the year</t>
-  </si>
-  <si>
-    <t>Provisions (reversed)/made during the year</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2495</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>(797)</t>
-  </si>
-  <si>
-    <t>(183)</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>4078</t>
-  </si>
-  <si>
-    <t>(1,053)</t>
-  </si>
-  <si>
-    <t>(294)</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>Dealer incentive, promotionaland. DSM budget</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
-    <t>Deferred Revenue</t>
-  </si>
-  <si>
-    <t>Total Contract Liabilities</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>7402</t>
-  </si>
-  <si>
-    <t>5684</t>
-  </si>
-  <si>
-    <t>13086</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>5373</t>
-  </si>
-  <si>
-    <t>5113</t>
-  </si>
-  <si>
-    <t>10486</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1083,181 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1070,13 +1286,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1090,10 +1306,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1104,13 +1320,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1121,13 +1337,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1138,13 +1354,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1155,13 +1371,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -1172,16 +1388,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1195,13 +1411,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1212,13 +1428,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1229,13 +1445,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1246,13 +1462,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1263,16 +1479,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1286,13 +1502,13 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1303,16 +1519,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1323,16 +1539,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -1346,13 +1562,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -1366,13 +1582,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -1383,16 +1599,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1403,13 +1619,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1420,13 +1636,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1440,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -1454,13 +1670,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -1471,13 +1687,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
@@ -1488,13 +1704,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -1505,13 +1721,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -1522,16 +1738,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -1545,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -1562,13 +1778,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
@@ -1579,13 +1795,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -1596,13 +1812,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -1613,16 +1829,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
@@ -1636,13 +1852,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -1653,16 +1869,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -1673,16 +1889,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -1696,13 +1912,13 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
@@ -1716,13 +1932,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
@@ -1733,16 +1949,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
@@ -1753,13 +1969,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
@@ -1773,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1803,13 +2019,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1823,10 +2039,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1837,13 +2053,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1854,13 +2070,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1871,13 +2087,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -1891,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1905,13 +2121,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1922,13 +2138,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1942,7 +2158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1972,13 +2188,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -1992,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -2006,13 +2222,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -2023,13 +2239,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -2040,13 +2256,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -2057,16 +2273,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2080,13 +2296,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2097,16 +2313,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -2117,13 +2333,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2134,13 +2350,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -2154,10 +2370,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -2168,13 +2384,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -2185,13 +2401,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -2202,13 +2418,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -2219,16 +2435,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -2242,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
@@ -2259,16 +2475,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2279,13 +2495,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -2299,7 +2515,450 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2311,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2329,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3109,443 +3768,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3580,13 +3808,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -3597,16 +3825,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -3617,13 +3845,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -3634,16 +3862,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -3658,6 +3886,307 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3693,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -3704,16 +4233,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -3727,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -3741,13 +4270,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -3758,16 +4287,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -3778,13 +4307,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -3801,10 +4330,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -3812,19 +4341,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -3835,13 +4364,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -3849,16 +4378,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -3866,19 +4395,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -3886,16 +4415,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -3906,7 +4435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3936,10 +4465,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -3953,10 +4482,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -3973,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3983,179 +4512,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_standard_cropped_df.xlsx
+++ b/output/61bbdb19-1f94-4617-8814-9148f0a43000/61bbdb19-1f94-4617-8814-9148f0a43000_notes_standard_cropped_df.xlsx
@@ -10,27 +10,29 @@
     <sheet name="8__038f385a-1d6c-3f7" sheetId="1" r:id="rId1"/>
     <sheet name="9__e49a50c5-fc40-348" sheetId="2" r:id="rId2"/>
     <sheet name="10__15014b4d-61d4-35" sheetId="3" r:id="rId3"/>
-    <sheet name="7_(a)_c83758f9-d318-" sheetId="4" r:id="rId4"/>
-    <sheet name="7_(a)_5c9b1d03-58f3-" sheetId="5" r:id="rId5"/>
-    <sheet name="12__51c61e95-fc3c-3e" sheetId="6" r:id="rId6"/>
-    <sheet name="13__51c61e95-fc3c-3e" sheetId="7" r:id="rId7"/>
-    <sheet name="13__ce85c201-f65d-3a" sheetId="8" r:id="rId8"/>
-    <sheet name="14__ff944637-e0b0-3d" sheetId="9" r:id="rId9"/>
-    <sheet name="15__d53d4967-c596-36" sheetId="10" r:id="rId10"/>
-    <sheet name="15__ec79c015-ce95-34" sheetId="11" r:id="rId11"/>
-    <sheet name="15__0d429d65-e9d0-3d" sheetId="12" r:id="rId12"/>
-    <sheet name="15__ea17fabf-481c-30" sheetId="13" r:id="rId13"/>
-    <sheet name="16__c83758f9-d318-34" sheetId="14" r:id="rId14"/>
-    <sheet name="2__8ad934fd-533f-3a9" sheetId="15" r:id="rId15"/>
-    <sheet name="3__e382c558-d8ea-313" sheetId="16" r:id="rId16"/>
-    <sheet name="4__71b1f04c-7b10-368" sheetId="17" r:id="rId17"/>
+    <sheet name="11_(b)_a3d5c4a6-a9b4" sheetId="4" r:id="rId4"/>
+    <sheet name="7_(b)_e3a05594-866a-" sheetId="5" r:id="rId5"/>
+    <sheet name="7_(b)_710210f9-41d4-" sheetId="6" r:id="rId6"/>
+    <sheet name="7_(c)_e3a05594-866a-" sheetId="7" r:id="rId7"/>
+    <sheet name="12__51c61e95-fc3c-3e" sheetId="8" r:id="rId8"/>
+    <sheet name="13__51c61e95-fc3c-3e" sheetId="9" r:id="rId9"/>
+    <sheet name="13__ce85c201-f65d-3a" sheetId="10" r:id="rId10"/>
+    <sheet name="14__ff944637-e0b0-3d" sheetId="11" r:id="rId11"/>
+    <sheet name="15__d53d4967-c596-36" sheetId="12" r:id="rId12"/>
+    <sheet name="15__ec79c015-ce95-34" sheetId="13" r:id="rId13"/>
+    <sheet name="15__0d429d65-e9d0-3d" sheetId="14" r:id="rId14"/>
+    <sheet name="15__ea17fabf-481c-30" sheetId="15" r:id="rId15"/>
+    <sheet name="16__c83758f9-d318-34" sheetId="16" r:id="rId16"/>
+    <sheet name="2__8ad934fd-533f-3a9" sheetId="17" r:id="rId17"/>
+    <sheet name="3__e382c558-d8ea-313" sheetId="18" r:id="rId18"/>
+    <sheet name="4__71b1f04c-7b10-368" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="64">
   <si>
     <t>line_item_0</t>
   </si>
@@ -65,36 +67,6 @@
     <t>Other receivables and prepayments</t>
   </si>
   <si>
-    <t>5876</t>
-  </si>
-  <si>
-    <t>(132)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>8617</t>
-  </si>
-  <si>
-    <t>(168)</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>9447</t>
-  </si>
-  <si>
     <t>$000</t>
   </si>
   <si>
@@ -110,24 +82,6 @@
     <t>Stock in transit</t>
   </si>
   <si>
-    <t>54607</t>
-  </si>
-  <si>
-    <t>64068</t>
-  </si>
-  <si>
-    <t>118675</t>
-  </si>
-  <si>
-    <t>17663</t>
-  </si>
-  <si>
-    <t>36513</t>
-  </si>
-  <si>
-    <t>54176</t>
-  </si>
-  <si>
     <t>2022 $'000</t>
   </si>
   <si>
@@ -167,78 +121,33 @@
     <t>Total carrying amount at end of year</t>
   </si>
   <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>(84)</t>
-  </si>
-  <si>
-    <t>1772</t>
-  </si>
-  <si>
-    <t>5056</t>
-  </si>
-  <si>
-    <t>3375</t>
-  </si>
-  <si>
-    <t>(2,521)</t>
-  </si>
-  <si>
-    <t>(1,273)</t>
-  </si>
-  <si>
-    <t>4637</t>
-  </si>
-  <si>
-    <t>7120</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>(86)</t>
-  </si>
-  <si>
-    <t>5646</t>
-  </si>
-  <si>
-    <t>3494</t>
-  </si>
-  <si>
-    <t>(2,909)</t>
-  </si>
-  <si>
-    <t>(1,175)</t>
-  </si>
-  <si>
-    <t>7514</t>
-  </si>
-  <si>
-    <t>Class C 30% (2021:30%) franking credits available to shareholders</t>
-  </si>
-  <si>
-    <t>ofthe Company for subsequent financial years</t>
-  </si>
-  <si>
-    <t>35875</t>
-  </si>
-  <si>
-    <t>31451</t>
+    <t>on the following items:</t>
+  </si>
+  <si>
+    <t>Provisions and accrued employee entitlements not</t>
+  </si>
+  <si>
+    <t>currently deductible</t>
+  </si>
+  <si>
+    <t>Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Recoveryofdeferred tax assets (DTA)</t>
+  </si>
+  <si>
+    <t>DTA expected to be recovered within 12 months</t>
+  </si>
+  <si>
+    <t>DTA expected to be recovered after more than 12 months</t>
   </si>
   <si>
     <t>$'000</t>
   </si>
   <si>
+    <t>Rightol-use-assets</t>
+  </si>
+  <si>
     <t>Trade payables due to parent entity Suzuki Motor Corporation</t>
   </si>
   <si>
@@ -254,72 +163,24 @@
     <t>13 Employee benefits</t>
   </si>
   <si>
-    <t>18249</t>
-  </si>
-  <si>
-    <t>2419</t>
-  </si>
-  <si>
-    <t>16178</t>
-  </si>
-  <si>
-    <t>36847</t>
-  </si>
-  <si>
-    <t>18122</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>14591</t>
-  </si>
-  <si>
-    <t>34164</t>
+    <t>Liability for annual and long- service leave</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Liability for long-service leave</t>
   </si>
   <si>
     <t>2021 $000</t>
   </si>
   <si>
-    <t>Liability for annual and long- service leave</t>
-  </si>
-  <si>
-    <t>Non-current</t>
-  </si>
-  <si>
-    <t>Liability for long-service leave</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
     <t>months</t>
   </si>
   <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
     <t>Roadside assistance</t>
   </si>
   <si>
-    <t>4692</t>
-  </si>
-  <si>
-    <t>3796</t>
-  </si>
-  <si>
     <t>Retail Bonus adjustment</t>
   </si>
   <si>
@@ -335,90 +196,15 @@
     <t>Provisions (reversed)/made during the year</t>
   </si>
   <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2495</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>(797)</t>
-  </si>
-  <si>
-    <t>(183)</t>
-  </si>
-  <si>
-    <t>1751</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>4078</t>
-  </si>
-  <si>
-    <t>(1,053)</t>
-  </si>
-  <si>
-    <t>(294)</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
     <t>Dealer incentive, promotionaland. DSM budget</t>
   </si>
   <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
     <t>Deferred Revenue</t>
   </si>
   <si>
     <t>Total Contract Liabilities</t>
   </si>
   <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>7402</t>
-  </si>
-  <si>
-    <t>5684</t>
-  </si>
-  <si>
-    <t>13086</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>5373</t>
-  </si>
-  <si>
-    <t>5113</t>
-  </si>
-  <si>
-    <t>10486</t>
-  </si>
-  <si>
     <t>Balance at 1 April</t>
   </si>
   <si>
@@ -438,33 +224,6 @@
   </si>
   <si>
     <t>On issue 31 March</t>
-  </si>
-  <si>
-    <t>22400</t>
-  </si>
-  <si>
-    <t>64029</t>
-  </si>
-  <si>
-    <t>17703</t>
-  </si>
-  <si>
-    <t>81732</t>
-  </si>
-  <si>
-    <t>Ordinary</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>'000</t>
-  </si>
-  <si>
-    <t>53982</t>
-  </si>
-  <si>
-    <t>10047</t>
   </si>
 </sst>
 </file>
@@ -855,11 +614,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -872,14 +634,14 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>5876</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -892,14 +654,14 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>-132</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -912,14 +674,14 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -932,14 +694,14 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>1240</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -949,14 +711,14 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="C7">
+        <v>7002</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -969,11 +731,14 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>2021</v>
@@ -986,14 +751,14 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9">
+        <v>8617</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>2021</v>
@@ -1006,14 +771,14 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10">
+        <v>-168</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>2021</v>
@@ -1026,14 +791,14 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
+      <c r="C11">
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>2021</v>
@@ -1046,14 +811,14 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
+      <c r="C12">
+        <v>956</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>2021</v>
@@ -1063,14 +828,14 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
+      <c r="C13">
+        <v>9447</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>2021</v>
@@ -1083,7 +848,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1111,144 +876,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>797</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>845</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1258,733 +915,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2019,16 +955,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>4692</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -2038,14 +974,17 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -2053,16 +992,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4692</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -2070,16 +1012,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4692</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -2087,16 +1029,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>3796</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -2106,14 +1048,17 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>118</v>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>2021</v>
@@ -2121,16 +1066,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3796</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>2021</v>
@@ -2138,16 +1086,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3796</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>2021</v>
@@ -2159,6 +1107,926 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2495</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2495</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>2495</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2731</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>-797</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>-183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1751</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>759</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>992</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>1751</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>854</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>854</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>854</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>1622</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>1622</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>1622</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>4078</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>-1053</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>-294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>2731</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>1414</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>1317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>2731</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>1497</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1497</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1497</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>989</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>989</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>989</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2188,16 +2056,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>1320</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -2207,14 +2075,14 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
+      <c r="C3">
+        <v>1320</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -2222,16 +2090,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -2239,16 +2110,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1320</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -2256,16 +2127,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -2273,19 +2144,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -2296,16 +2167,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>7402</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -2313,19 +2184,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>5684</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -2333,16 +2204,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>13086</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -2350,16 +2221,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>494</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>2021</v>
@@ -2369,14 +2240,14 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>125</v>
+      <c r="C12">
+        <v>494</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>2021</v>
@@ -2384,16 +2255,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>2021</v>
@@ -2401,16 +2275,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>494</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2021</v>
@@ -2418,16 +2292,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>2021</v>
@@ -2435,19 +2309,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>2021</v>
@@ -2458,16 +2332,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>126</v>
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>5373</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>2021</v>
@@ -2475,19 +2349,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>5113</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>2021</v>
@@ -2495,16 +2369,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>10486</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>2021</v>
@@ -2515,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2545,16 +2419,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>22400</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -2562,16 +2436,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>22400</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -2579,16 +2453,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -2596,19 +2473,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>64029</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -2616,19 +2493,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>17703</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -2636,19 +2513,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>81732</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -2656,19 +2533,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -2676,16 +2553,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -2693,16 +2570,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -2710,19 +2587,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>22400</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -2730,19 +2607,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>22400</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>2022</v>
@@ -2750,16 +2627,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>22400</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>2021</v>
@@ -2767,16 +2644,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>22400</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2021</v>
@@ -2784,16 +2661,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>2021</v>
@@ -2801,19 +2681,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>53982</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>2021</v>
@@ -2821,19 +2701,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>10047</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>2021</v>
@@ -2841,19 +2721,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>64029</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>2021</v>
@@ -2861,19 +2741,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>2021</v>
@@ -2881,16 +2761,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>141</v>
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>2021</v>
@@ -2898,16 +2778,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>142</v>
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>2021</v>
@@ -2915,19 +2795,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>22400</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>2021</v>
@@ -2935,19 +2815,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>22400</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>2021</v>
@@ -2958,7 +2838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2970,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2988,7 +2868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3038,59 +2918,62 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
+      <c r="C3">
+        <v>54607</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
+      <c r="C4">
+        <v>64068</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
+      <c r="C5">
+        <v>118675</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3100,59 +2983,62 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7">
+        <v>17663</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
+      <c r="C8">
+        <v>36513</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9">
+        <v>54176</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -3187,578 +3073,614 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>710</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>710</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1748</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>-84</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1772</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>5056</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>3375</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>-2521</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>-1273</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>4637</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>7120</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>710</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>710</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1745</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>2021</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>-86</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1748</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>2021</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>5646</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>2021</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>3494</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>2021</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>-2909</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>2021</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>-1175</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>2021</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>5056</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>7514</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -3773,12 +3695,411 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>6113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>6161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>6161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>4702</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>4731</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>4731</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3808,36 +4129,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
+      <c r="C3">
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -3845,36 +4160,30 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
+      <c r="C5">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -3885,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3920,11 +4229,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -3932,19 +4244,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
+      <c r="C3">
+        <v>18249</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -3952,19 +4264,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
+      <c r="C4">
+        <v>2419</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -3972,19 +4284,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
+      <c r="C5">
+        <v>16178</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -3992,19 +4304,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
+      <c r="C6">
+        <v>36847</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -4012,19 +4324,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
+      <c r="C7">
+        <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -4034,14 +4346,14 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -4054,11 +4366,14 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>2021</v>
@@ -4066,19 +4381,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>78</v>
+      <c r="C10">
+        <v>18122</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>2021</v>
@@ -4086,19 +4401,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
+      <c r="C11">
+        <v>1451</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>2021</v>
@@ -4106,19 +4421,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>80</v>
+      <c r="C12">
+        <v>14591</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>2021</v>
@@ -4126,19 +4441,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
+      <c r="C13">
+        <v>34164</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>2021</v>
@@ -4146,19 +4461,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2021</v>
@@ -4168,14 +4483,14 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>82</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>2021</v>
@@ -4186,7 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -4221,105 +4536,111 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
+      <c r="C3">
+        <v>2040</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
+      <c r="C4">
+        <v>2040</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4329,187 +4650,114 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
+      <c r="C9">
+        <v>1850</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>88</v>
+      <c r="C10">
+        <v>1850</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>